--- a/database/industries/ghaza/gheshan/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/ghaza/gheshan/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshan\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\gheshan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380F839-CF13-45F8-82B3-9ABF12027590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151FF6B-876E-4EE8-A29B-097EE145BF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
